--- a/VennOutput/NonTrimmed_OUTPUT6_VennResults.xlsx
+++ b/VennOutput/NonTrimmed_OUTPUT6_VennResults.xlsx
@@ -408,7 +408,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MODERNA_JANSSEN</t>
+          <t>Moderna_Janssen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MODERNA_JANSSEN</t>
+          <t>Moderna_Janssen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MODERNA_JANSSEN</t>
+          <t>Moderna_Janssen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,7 +444,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MODERNA_JANSSEN</t>
+          <t>Moderna_Janssen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MODERNA_JANSSEN</t>
+          <t>Moderna_Janssen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -600,7 +600,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -864,7 +864,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -912,7 +912,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -984,7 +984,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1200,7 +1200,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1284,7 +1284,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1320,7 +1320,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1332,7 +1332,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1380,7 +1380,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1416,7 +1416,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1440,7 +1440,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1464,7 +1464,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1512,7 +1512,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1524,7 +1524,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1620,7 +1620,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1632,7 +1632,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1644,7 +1644,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1656,7 +1656,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1680,7 +1680,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1740,7 +1740,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1752,7 +1752,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1764,7 +1764,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1776,7 +1776,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1824,7 +1824,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1836,7 +1836,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1848,7 +1848,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1860,7 +1860,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1872,7 +1872,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1920,7 +1920,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1944,7 +1944,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1956,7 +1956,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1968,7 +1968,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -1992,7 +1992,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2040,7 +2040,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2100,7 +2100,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2124,7 +2124,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2136,7 +2136,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2160,7 +2160,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2184,7 +2184,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2220,7 +2220,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2244,7 +2244,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2256,7 +2256,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2268,7 +2268,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2280,7 +2280,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2292,7 +2292,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2304,7 +2304,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2352,7 +2352,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2364,7 +2364,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2376,7 +2376,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2400,7 +2400,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2412,7 +2412,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">

--- a/VennOutput/NonTrimmed_OUTPUT6_VennResults.xlsx
+++ b/VennOutput/NonTrimmed_OUTPUT6_VennResults.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:Q176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,81 @@
           <t>Detail</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Case No.x</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PRR.x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases.x</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared.x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Significance.x</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Case No.y</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PRR.y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases.y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared.y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Significance.y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Case No</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PRR</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -380,6 +455,81 @@
           <t>Ageusia</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.2601635950698</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1942.7638397384</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.0801295493461</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>653.71725477432</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2.1326028022144</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>240.40086688381</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -392,6 +542,81 @@
           <t>Anticoagulant therapy</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.7376448545913</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>601.05920814354</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2.0974134866838</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>298.92613739177</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>3.8514108467053</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>592.75225071507</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -404,6 +629,81 @@
           <t>Taste disorder</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.9785312393742</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>712.57192293166</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2.599049421901</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>526.54441096714</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2.1734670270411</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>112.61329026034</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -416,6 +716,56 @@
           <t>Chills</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>44223</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2.0169510614899</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>15572.172816902</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>11387</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2.3058760331307</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>8298.430309043</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -428,6 +778,56 @@
           <t>Fatigue</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>47860</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2.0001851981684</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>16619.489729775</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>10913</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2.0060988065846</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>5537.3812804228</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -440,6 +840,56 @@
           <t>Impaired work ability</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2714</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2.0895906154423</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>963.37867729057</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2.2037401324983</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>392.73585029279</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -452,6 +902,56 @@
           <t>Poor quality product administered</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>7.8939414473976</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2890.3568438261</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>5.8848325096789</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1532.9095208028</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -464,6 +964,56 @@
           <t>Product administered to patient of inappropriate age</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6386</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3.4289343718217</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>5551.5429815758</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2.0872731208306</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>579.10560034195</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -476,6 +1026,56 @@
           <t>Acute kidney injury</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.9475227402714</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>771.15612589791</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2.3641674113145</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>96.155851191426</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -488,6 +1088,56 @@
           <t>Acute respiratory failure</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.6762343612065</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>800.07571455512</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>3.1050557098692</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>253.3876397742</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -500,6 +1150,56 @@
           <t>Anosmia</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.9173281243687</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2068.2983786425</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2.1756176012691</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>198.20833527784</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -512,6 +1212,56 @@
           <t>Blood pressure measurement</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.2007875043188</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2473.49196995</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2.610816057643</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>385.0154900657</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -524,6 +1274,56 @@
           <t>Blood test</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7909</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.4242096019082</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3971.7757690957</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1865</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2.3323943479939</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1299.0637510677</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -536,6 +1336,56 @@
           <t>Body temperature</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5655</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.6495498426934</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5382.1889668584</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1515</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3.4617033719052</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2305.9123288658</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -548,6 +1398,56 @@
           <t>Cerebrovascular accident</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.1141387316307</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>510.82386685532</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2.9445570801217</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>496.49222520946</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -560,6 +1460,56 @@
           <t>Chest X-ray</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3132</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.3790895720486</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1501.4576212896</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2.2365642857122</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>447.28274881668</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -572,6 +1522,56 @@
           <t>Computerised tomogram</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.257316737025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1651.322012533</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2.7811917340628</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1127.6578441447</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -584,6 +1584,56 @@
           <t>Computerised tomogram thorax</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.8634900066171</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>475.51032151417</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2.9453236423293</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>211.39435045785</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -596,6 +1646,56 @@
           <t>Computerised tomogram thorax abnormal</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.5477908202532</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>367.03344850139</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3.7970656657479</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>414.22465731789</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -608,6 +1708,56 @@
           <t>COVID-19</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17749</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.7476087761377</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>22847.134692338</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2867</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2.2415663124704</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1826.2262435621</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -620,6 +1770,56 @@
           <t>COVID-19 pneumonia</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.0641812062412</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1515.6065997918</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>3.751357418489</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>662.17169101818</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -632,6 +1832,56 @@
           <t>Deep vein thrombosis</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.1517121939823</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>360.59617028149</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5.8548287575812</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1663.8080562868</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -644,6 +1894,56 @@
           <t>Dysmenorrhoea</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.2526391396939</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1228.4108756108</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2.0848649350367</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>88.270808078224</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -656,6 +1956,56 @@
           <t>Electrocardiogram</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5863</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.8334277970641</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3888.8080747815</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1173</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2.1475555382345</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>659.98441094761</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -668,6 +2018,56 @@
           <t>Facial paralysis</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.6090201222275</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>760.39820842779</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2.1020334241208</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>143.72064514571</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -680,6 +2080,56 @@
           <t>Fibrin D dimer</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.7421193112175</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>482.29523799917</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>5.4717226588188</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1032.9007822615</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -692,6 +2142,56 @@
           <t>Fibrin D dimer increased</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.7523890074137</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>453.36394177904</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>4.2441256263998</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>554.61381011292</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -704,6 +2204,56 @@
           <t>Gait inability</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.1038461705339</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>366.40120962739</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2.3631494005458</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>185.74549148752</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -716,6 +2266,56 @@
           <t>Head discomfort</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.832879038891</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1007.4271283884</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2.5837424478341</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>313.64411413399</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -728,6 +2328,56 @@
           <t>Heart rate</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2077</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.3842967762431</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2421.7455728411</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2.0486408561618</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>156.49300627921</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -740,6 +2390,56 @@
           <t>Heavy menstrual bleeding</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.7683914123906</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3181.0698363971</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2.4861802292135</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>353.95316261067</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -752,6 +2452,56 @@
           <t>Hot flush</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1792</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.1598767737411</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>693.27149542532</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2.3825926778327</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>334.11963400145</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -764,6 +2514,56 @@
           <t>Magnetic resonance imaging</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2666</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.1204227375479</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2043.6076045126</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2.8217975690166</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>675.18027040046</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -776,6 +2576,56 @@
           <t>Magnetic resonance imaging head</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.2180312689277</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>673.66474159545</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>3.4118406258661</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>349.39520749601</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -788,6 +2638,56 @@
           <t>Menstrual disorder</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.1810836254107</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1590.3314094081</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2.0979641115574</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>120.32061186226</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -800,6 +2700,56 @@
           <t>Menstruation irregular</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.0525973115294</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2007.9557693375</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2.1733805357621</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>181.45643427328</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -812,6 +2762,56 @@
           <t>Migraine</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.039119675676</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1395.7910062878</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2.7088626978692</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1196.4763736993</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -824,6 +2824,56 @@
           <t>Muscle tightness</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.0049923175957</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>336.93861283874</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2.2744365372584</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>175.12882246925</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -836,6 +2886,56 @@
           <t>Myocardial infarction</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.3529448265544</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>344.55293921167</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2.1074663754079</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>85.068718362242</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -848,6 +2948,56 @@
           <t>Off label use</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.4323529227851</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1417.3512128878</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>4.5311594815882</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>842.04265389836</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -860,6 +3010,56 @@
           <t>Panic attack</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.6393477465072</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>390.40364841993</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2.1319743371421</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>75.146839128932</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -872,6 +3072,56 @@
           <t>Parosmia</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.1920627829609</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>555.084793871</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2.2537528227453</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>86.183176157878</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -884,6 +3134,56 @@
           <t>Pulmonary embolism</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.3045308097638</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>598.14827239604</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>4.5713863387255</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>1348.4382221447</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -896,6 +3196,56 @@
           <t>SARS-CoV-2 antibody test</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.1768481196322</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1310.7541218526</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>3.6608261050659</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>380.89100995504</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -908,6 +3258,56 @@
           <t>SARS-CoV-2 test positive</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13160</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.6280138103496</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>16435.82239802</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2376</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2.5052124089552</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>1958.1671568033</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -920,6 +3320,56 @@
           <t>Seizure</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2373</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.1005569011755</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>860.07338975375</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2.4998456528289</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>525.94970519544</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -932,6 +3382,56 @@
           <t>Thrombosis</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.3783721817036</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>829.74348483664</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>6.6609177891553</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>3711.495618822</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -944,6 +3444,56 @@
           <t>Ultrasound Doppler</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.1245680883033</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>249.30730782804</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4.5793092570143</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>712.94821787069</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -956,6 +3506,56 @@
           <t>Vaccine breakthrough infection</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.7493996400433</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1116.3297676738</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>3.0544264008543</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>327.3122682434</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -968,6 +3568,31 @@
           <t>Adverse drug reaction</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>5.0714230630958</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>519.91070800745</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -980,6 +3605,31 @@
           <t>Adverse event</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>4.2185335529187</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>555.93748771886</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -992,6 +3642,31 @@
           <t>Angiogram</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2.924434822171</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>195.08977057764</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1004,6 +3679,31 @@
           <t>Angiogram pulmonary abnormal</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>5.7411514338074</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>514.57684965757</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1016,6 +3716,31 @@
           <t>Antibody test</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>5.5511967738596</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>544.44474396822</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1028,6 +3753,31 @@
           <t>Blood glucose</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2.3149333762676</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>105.62515860488</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1040,6 +3790,31 @@
           <t>Cold sweat</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2.5011280686243</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>533.89367935005</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1052,6 +3827,31 @@
           <t>Computerised tomogram head</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2.6232211676917</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>299.66891859053</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1064,6 +3864,31 @@
           <t>Computerised tomogram head abnormal</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>4.9911340201401</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>464.8910064439</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1076,6 +3901,31 @@
           <t>Computerised tomogram head normal</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2.0681137854031</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>73.172908173818</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1088,6 +3938,31 @@
           <t>Contusion</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2.0338402003003</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>310.33864196073</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1100,6 +3975,31 @@
           <t>Death</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2.0241682076535</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>438.26922510875</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1112,6 +4012,31 @@
           <t>Disorientation</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2.0792380545445</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>156.94946336108</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1124,6 +4049,31 @@
           <t>Dyspnoea exertional</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2.8702376564046</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>184.8922977906</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1136,6 +4086,31 @@
           <t>Endotracheal intubation</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2.0883004785269</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>87.634864388827</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1148,6 +4123,31 @@
           <t>Epistaxis</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2.1743271416045</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>177.60494010386</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1160,6 +4160,31 @@
           <t>Eye pain</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2.1103998179013</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>226.20043565422</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1172,6 +4197,31 @@
           <t>Feeling abnormal</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2474</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2.1079515237892</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>1339.1925654225</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1184,6 +4234,31 @@
           <t>Feeling cold</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2.9700191155594</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1301.3187074193</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1196,6 +4271,31 @@
           <t>Feeling of body temperature change</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2.8706379210394</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>232.47927404173</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1208,6 +4308,31 @@
           <t>Head injury</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2.0679169591081</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>155.59776798209</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1220,6 +4345,31 @@
           <t>Headache</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>15890</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2.2380160147709</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>11186.706887114</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1232,6 +4382,31 @@
           <t>Heart rate decreased</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2.0181403245653</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>66.839537044331</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1244,6 +4419,31 @@
           <t>Hyperhidrosis</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2.7120926819558</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>3552.4627401317</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1256,6 +4456,31 @@
           <t>Hypoxia</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2.1204581393316</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>156.38646364972</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1268,6 +4493,31 @@
           <t>Laboratory test</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2.139111105575</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>523.90723257546</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1280,6 +4530,31 @@
           <t>Loss of consciousness</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2.2568025397844</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>1176.5759652183</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1292,6 +4567,31 @@
           <t>Lung opacity</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>3.1179635971676</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>180.85555174755</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1304,6 +4604,31 @@
           <t>Magnetic resonance imaging head abnormal</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>4.7342909920964</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>498.66939756659</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1316,6 +4641,31 @@
           <t>Magnetic resonance imaging head normal</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>3.3266975618315</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>202.92852546664</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1328,6 +4678,31 @@
           <t>Magnetic resonance imaging normal</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2.8197203742675</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>153.50366009301</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1340,6 +4715,31 @@
           <t>Muscle spasms</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1298</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2.6169108368264</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>1166.7373574753</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1352,6 +4752,31 @@
           <t>Night sweats</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2.0357800786913</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>150.81313733665</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1364,6 +4789,31 @@
           <t>Oxygen saturation</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>3.0760061391737</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>196.10926255264</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1376,6 +4826,31 @@
           <t>Platelet count</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5.730618780615</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>516.52850149026</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1388,6 +4863,31 @@
           <t>Platelet count normal</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2.7889276051954</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>238.94263936974</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1400,6 +4900,31 @@
           <t>Pulmonary thrombosis</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>5.7631820455827</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>429.59852987553</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1412,6 +4937,31 @@
           <t>Sensitive skin</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>3.274440157435</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>244.22192283161</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1424,6 +4974,31 @@
           <t>Sensory disturbance</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>2.5967497363886</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>195.44436016144</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1436,6 +5011,31 @@
           <t>Sinus congestion</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2.1092724042773</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>69.799522134257</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1448,6 +5048,31 @@
           <t>Sleep disorder</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2.2318202836315</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>658.74385605758</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1460,6 +5085,31 @@
           <t>Suspected COVID-19</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>15.500417017669</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>3594.2596635475</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1472,6 +5122,31 @@
           <t>Therapy non-responder</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>40.367965336716</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>4041.6717368845</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1484,6 +5159,31 @@
           <t>Thirst</t>
         </is>
       </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2.3259025627023</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>135.61796883945</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1496,6 +5196,31 @@
           <t>Ultrasound Doppler abnormal</t>
         </is>
       </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>5.5926363729345</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>727.03015790514</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1508,6 +5233,31 @@
           <t>Ultrasound scan</t>
         </is>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>3.1558649160118</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>798.96566551467</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1520,6 +5270,31 @@
           <t>Ultrasound scan abnormal</t>
         </is>
       </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>2.1198919510052</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>81.571945214047</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1532,6 +5307,31 @@
           <t>Unresponsive to stimuli</t>
         </is>
       </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>2.0189078148981</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>298.15168406607</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1544,6 +5344,31 @@
           <t>Vaccination failure</t>
         </is>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2.4669227505386</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>467.82992758247</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1556,6 +5381,31 @@
           <t>Vision blurred</t>
         </is>
       </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2.8058766537046</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>1176.9804325919</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1568,6 +5418,31 @@
           <t>Visual impairment</t>
         </is>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>2.2630939453878</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>331.72027640361</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1580,6 +5455,31 @@
           <t>Vital signs measurement</t>
         </is>
       </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>5.2326234037598</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>790.57978098522</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1592,6 +5492,56 @@
           <t>Atrial fibrillation</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.5013311406308</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>659.47612253779</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2.110010665153</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>414.49377160335</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1604,6 +5554,56 @@
           <t>Bell\'s palsy</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.3560331323913</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1465.7600099869</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>1384</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2.2077031914348</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>557.48313674339</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1616,6 +5616,56 @@
           <t>Illness</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2271</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.1548248203261</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>874.77022894984</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2.4548851432027</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>1257.7917153967</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1628,6 +5678,56 @@
           <t>Pharyngeal swelling</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2313</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.4913594648283</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2070.2698958471</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2.1962171306905</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>721.31361238945</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1640,6 +5740,56 @@
           <t>SARS-CoV-2 test negative</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.3838215020263</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3874.0323132831</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>3490</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2.1125073779002</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>1274.2233493597</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1652,6 +5802,56 @@
           <t>Vaccination site pain</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>6436</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.2312931346383</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2707.1242430537</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>9006</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>4.0834926562651</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>9699.8152726511</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1664,6 +5864,31 @@
           <t>Expired product administered</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>9136</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>3.1569346303739</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>7114.5050463549</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1676,6 +5901,31 @@
           <t>Inappropriate schedule of product administration</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2.8118241433608</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>3058.2007668999</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1688,6 +5938,31 @@
           <t>Injection site pruritus</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>16757</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>4.233658215708</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>18952.504960933</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1700,6 +5975,31 @@
           <t>Injection site rash</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>9455</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>3.1846863985586</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>7459.4689064547</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1712,6 +6012,31 @@
           <t>Limb discomfort</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2380</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2.1743131809965</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>928.09845309102</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1724,6 +6049,31 @@
           <t>Maternal exposure during pregnancy</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>3.3352990297212</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>671.91171399453</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1736,6 +6086,31 @@
           <t>Peripheral swelling</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>10143</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2.2570030578399</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>4364.3001978023</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1748,6 +6123,31 @@
           <t>Product dose omission issue</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2243</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>46.795206172717</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>6895.3457258003</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1760,6 +6160,31 @@
           <t>Product temperature excursion issue</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>6.5937125611271</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1511.0790727419</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1772,6 +6197,31 @@
           <t>Rash pruritic</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>5336</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2.0771709087731</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>1876.2788954526</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1784,6 +6234,31 @@
           <t>Vaccination complication</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>3481</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>3.0514001110313</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>2556.4218282174</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1796,6 +6271,31 @@
           <t>Vaccination site erythema</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>5670</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>11.314881114161</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>12497.024410302</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1808,6 +6308,31 @@
           <t>Vaccination site induration</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>10.474852028185</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>2554.1678908012</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1820,6 +6345,31 @@
           <t>Vaccination site mass</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>5.0786901640013</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>1107.8513474225</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1832,6 +6382,31 @@
           <t>Vaccination site pruritus</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>3716</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>15.695463028941</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>9221.8660416118</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1844,6 +6419,31 @@
           <t>Vaccination site rash</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>10.829372591254</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>5064.7014652282</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1856,6 +6456,31 @@
           <t>Vaccination site reaction</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>8.680728897108</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>2238.1274978018</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1868,6 +6493,31 @@
           <t>Vaccination site swelling</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>5.5427362744945</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>6177.9740109907</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1880,6 +6530,31 @@
           <t>Vaccination site warmth</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>8.6230781787741</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>5803.1672780574</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1892,6 +6567,31 @@
           <t>Anxiety</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4279</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.2146562186405</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1762.7558627129</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1904,6 +6604,31 @@
           <t>Axillary pain</t>
         </is>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.678202052248</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1800.815783082</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1916,6 +6641,31 @@
           <t>Blood pressure increased</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3327</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.4949369372949</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1753.1456032431</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1928,6 +6678,31 @@
           <t>Breast pain</t>
         </is>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.9537921799595</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>714.64025233218</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1940,6 +6715,31 @@
           <t>Chest discomfort</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>8180</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.5930010674127</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4671.8648976721</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1952,6 +6752,31 @@
           <t>Chest pain</t>
         </is>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>11968</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.5198085997807</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6522.9370732549</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1964,6 +6789,31 @@
           <t>Deafness</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.032920017801</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>268.79473971201</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1976,6 +6826,31 @@
           <t>Dysgeusia</t>
         </is>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2390</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.5247701503688</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1285.9468254793</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1988,6 +6863,31 @@
           <t>Ear discomfort</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1362</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.999003062478</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>980.90864751235</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2000,6 +6900,31 @@
           <t>Echocardiogram</t>
         </is>
       </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2314</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.0671015985097</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1727.8450386211</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2012,6 +6937,31 @@
           <t>Echocardiogram abnormal</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.2560802891191</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>290.11555046615</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2024,6 +6974,31 @@
           <t>Echocardiogram normal</t>
         </is>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.3487052863263</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>456.9788445608</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2036,6 +7011,31 @@
           <t>Electrocardiogram abnormal</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.2172202048345</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>572.16827351989</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2048,6 +7048,31 @@
           <t>Electrocardiogram normal</t>
         </is>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.150766334945</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1077.7093745012</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2060,6 +7085,31 @@
           <t>Exposure to SARS-CoV-2</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>6.3221998460702</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1679.658619777</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2072,6 +7122,31 @@
           <t>Flushing</t>
         </is>
       </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.3187642840927</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2224.5718036753</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2084,6 +7159,31 @@
           <t>Heart rate increased</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>6946</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.2740600667442</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3049.0872041148</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2096,6 +7196,31 @@
           <t>Heart rate irregular</t>
         </is>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.6346103310933</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>546.80070386229</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2108,6 +7233,31 @@
           <t>Hypoacusis</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.4990992215543</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>410.26506019362</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2120,6 +7270,31 @@
           <t>Hypoaesthesia oral</t>
         </is>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2604</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.7935575056001</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1677.9097672615</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2132,6 +7307,31 @@
           <t>Immunisation</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2627</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>27.140977069704</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7610.8121115407</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2144,6 +7344,31 @@
           <t>Incorrect product formulation administered</t>
         </is>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>4.0764178137025</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>712.38364406742</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2156,6 +7381,31 @@
           <t>Interchange of vaccine products</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>5701</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>5.7238396283898</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>8519.3022591653</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2168,6 +7418,31 @@
           <t>Intermenstrual bleeding</t>
         </is>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>5.2947691425854</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1084.4007575575</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2180,6 +7455,31 @@
           <t>Investigation</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>45.752778977637</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3046.4468113201</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2192,6 +7492,31 @@
           <t>Loss of personal independence in daily activities</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.1098645824042</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>817.45642657619</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2204,6 +7529,31 @@
           <t>Lymph node pain</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2702</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3.0239207514233</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1976.1228878212</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2216,6 +7566,31 @@
           <t>Lymphadenopathy</t>
         </is>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>11810</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.288631141214</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5302.3395412225</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2228,6 +7603,31 @@
           <t>Metabolic function test</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.1615543174897</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1066.2183944403</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2240,6 +7640,31 @@
           <t>Myocarditis</t>
         </is>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>4.0907796139103</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1667.6516944668</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2252,6 +7677,31 @@
           <t>Nervousness</t>
         </is>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.0469540798376</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>410.57685612628</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2264,6 +7714,31 @@
           <t>Oropharyngeal discomfort</t>
         </is>
       </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3.4053319838259</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>673.89173664015</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2276,6 +7751,31 @@
           <t>Oropharyngeal pain</t>
         </is>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>6060</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.0723870173468</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2140.4284621732</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2288,6 +7788,31 @@
           <t>Oxygen saturation decreased</t>
         </is>
       </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.1004560566957</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>339.94929815046</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2300,6 +7825,31 @@
           <t>Palpitations</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>7385</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2.6657564353771</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4426.580631771</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2312,6 +7862,31 @@
           <t>Paraesthesia oral</t>
         </is>
       </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3627</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.9442698410734</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2549.2860254376</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2324,6 +7899,31 @@
           <t>Pericarditis</t>
         </is>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.9258786041331</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>674.85040023276</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2336,6 +7936,31 @@
           <t>Product preparation error</t>
         </is>
       </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>739</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>3.4347490895683</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>644.88935852787</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2348,6 +7973,31 @@
           <t>Product preparation issue</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>3341</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>13.136759533956</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>7941.8785624107</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2360,6 +8010,31 @@
           <t>Respiratory tract congestion</t>
         </is>
       </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2.3316680459074</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>878.73103635084</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2372,6 +8047,31 @@
           <t>SARS-CoV-2 test</t>
         </is>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>10910</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>8.3394580192516</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>21151.205309723</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2384,6 +8084,31 @@
           <t>Swollen tongue</t>
         </is>
       </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2.3785062039303</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1158.3811593568</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2396,6 +8121,31 @@
           <t>Throat irritation</t>
         </is>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2.5712983746307</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1853.3557220071</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2408,6 +8158,31 @@
           <t>Throat tightness</t>
         </is>
       </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3708</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2.2782523199419</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1624.4675022284</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2420,6 +8195,31 @@
           <t>Tinnitus</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>6933</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2.9230924635173</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4843.3107108646</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2432,6 +8232,31 @@
           <t>Troponin</t>
         </is>
       </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3.2503459745515</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>830.33756725526</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2444,6 +8269,31 @@
           <t>Troponin increased</t>
         </is>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>4.3226389030519</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1619.1232403196</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2456,6 +8306,31 @@
           <t>Vaginal haemorrhage</t>
         </is>
       </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2.9528520218265</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>610.70694359216</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2466,6 +8341,31 @@
       <c r="B176" t="inlineStr">
         <is>
           <t>Vertigo</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2.1292843461081</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1449.842343903</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
